--- a/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
+++ b/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nater\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\R@M\qubo\qubo_electronics.git\Project QUBO\eagleDesigns\powerBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -62,13 +62,49 @@
     <t>Digi-Key Page</t>
   </si>
   <si>
-    <t>Datasheet</t>
-  </si>
-  <si>
     <t>Shopping</t>
   </si>
   <si>
     <t>e3 Series Datasheet</t>
+  </si>
+  <si>
+    <t>523K Resistor</t>
+  </si>
+  <si>
+    <t>CRCW0805523KFKEA</t>
+  </si>
+  <si>
+    <t>541-523KCCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 523K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>51K Resistor</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics, Inc</t>
+  </si>
+  <si>
+    <t>RMCF0805JT51K0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0805JT51K0</t>
+  </si>
+  <si>
+    <t>RES SMD 51K OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>Datasheet(s)</t>
+  </si>
+  <si>
+    <t>RMCF Series Datasheet</t>
+  </si>
+  <si>
+    <t>Packaging Specs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity </t>
   </si>
 </sst>
 </file>
@@ -78,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +126,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,10 +159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,79 +481,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B097BF0F-8E66-4B45-A292-B7ED4A5324CC}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1"/>
     <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="10" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="Link" xr:uid="{80DBAD58-51F2-47F4-8E90-BA3D9A3C747B}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{CAE758C6-0393-46B0-9FAB-453C21762DA6}"/>
+    <hyperlink ref="H2" r:id="rId1" display="Link" xr:uid="{80DBAD58-51F2-47F4-8E90-BA3D9A3C747B}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{CAE758C6-0393-46B0-9FAB-453C21762DA6}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{34CCC9E7-0DA1-49A1-B706-69870C650502}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{747E6189-579D-489A-AA48-041F83758657}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{65F00B7B-66D2-4281-9659-385AA46ECFE7}"/>
+    <hyperlink ref="I4" r:id="rId6" display="RMCF Series, Packaging Spec" xr:uid="{93B45437-BE8C-4FA0-90C6-E818BB7141CB}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{AC699323-30B6-441C-9324-25F881B7ABCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
+++ b/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +538,7 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -567,7 +567,7 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -596,7 +596,7 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>

--- a/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
+++ b/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t xml:space="preserve">Quantity </t>
+  </si>
+  <si>
+    <t>100K Resistor</t>
+  </si>
+  <si>
+    <t>RMCF0805JT100KCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0805JT100K</t>
+  </si>
+  <si>
+    <t>RES SMD 100K OHM 5% 1/8W 0805</t>
   </si>
 </sst>
 </file>
@@ -114,7 +126,22 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,11 +186,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -481,142 +510,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B097BF0F-8E66-4B45-A292-B7ED4A5324CC}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="10" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="22.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="23.109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -629,8 +691,11 @@
     <hyperlink ref="H4" r:id="rId5" xr:uid="{65F00B7B-66D2-4281-9659-385AA46ECFE7}"/>
     <hyperlink ref="I4" r:id="rId6" display="RMCF Series, Packaging Spec" xr:uid="{93B45437-BE8C-4FA0-90C6-E818BB7141CB}"/>
     <hyperlink ref="J4" r:id="rId7" xr:uid="{AC699323-30B6-441C-9324-25F881B7ABCC}"/>
+    <hyperlink ref="I5" r:id="rId8" display="RMCF Series, Packaging Spec" xr:uid="{7F65EBAB-61AF-4589-A1CB-D538092BA30D}"/>
+    <hyperlink ref="J5" r:id="rId9" xr:uid="{1C75C55A-B852-4291-B6D7-9037B0466635}"/>
+    <hyperlink ref="H5" r:id="rId10" xr:uid="{DA2334BA-4C4D-494B-8CEB-BDD8360C2A7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
+++ b/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -117,6 +117,45 @@
   </si>
   <si>
     <t>RES SMD 100K OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>Johanson Technology, Inc</t>
+  </si>
+  <si>
+    <t>Ceramic 0.022 uF Cap</t>
+  </si>
+  <si>
+    <t>500X15W223MV4E</t>
+  </si>
+  <si>
+    <t>709-1341-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 0.022UF 50V X7R 0805</t>
+  </si>
+  <si>
+    <t>X2Y Series Datasheet</t>
+  </si>
+  <si>
+    <t>Ceramic 1uF Cap</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>C2012X7R1H105K125AE</t>
+  </si>
+  <si>
+    <t>445-8890-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 50V X7R 0805</t>
+  </si>
+  <si>
+    <t>Soft Termination Datasheet</t>
+  </si>
+  <si>
+    <t>Soft Termination Spec</t>
   </si>
 </sst>
 </file>
@@ -126,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +203,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -194,6 +240,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -510,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B097BF0F-8E66-4B45-A292-B7ED4A5324CC}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,6 +732,67 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="Link" xr:uid="{80DBAD58-51F2-47F4-8E90-BA3D9A3C747B}"/>
@@ -694,8 +805,13 @@
     <hyperlink ref="I5" r:id="rId8" display="RMCF Series, Packaging Spec" xr:uid="{7F65EBAB-61AF-4589-A1CB-D538092BA30D}"/>
     <hyperlink ref="J5" r:id="rId9" xr:uid="{1C75C55A-B852-4291-B6D7-9037B0466635}"/>
     <hyperlink ref="H5" r:id="rId10" xr:uid="{DA2334BA-4C4D-494B-8CEB-BDD8360C2A7E}"/>
+    <hyperlink ref="H6" r:id="rId11" xr:uid="{E29978C5-44F3-4F96-8CDF-34370FD0D528}"/>
+    <hyperlink ref="I6" r:id="rId12" xr:uid="{6975CB59-F6D5-47D7-9B2B-F1859252D01E}"/>
+    <hyperlink ref="H7" r:id="rId13" xr:uid="{51FD74B9-7D50-4F35-A110-D09792590472}"/>
+    <hyperlink ref="I7" r:id="rId14" xr:uid="{A87F9D38-C4D0-42C4-A5FD-BA2D180AB2C2}"/>
+    <hyperlink ref="J7" r:id="rId15" xr:uid="{D261F6DB-0557-4D08-B72D-81F4D11F8D23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
+++ b/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -119,43 +119,43 @@
     <t>RES SMD 100K OHM 5% 1/8W 0805</t>
   </si>
   <si>
-    <t>Johanson Technology, Inc</t>
-  </si>
-  <si>
-    <t>Ceramic 0.022 uF Cap</t>
-  </si>
-  <si>
-    <t>500X15W223MV4E</t>
-  </si>
-  <si>
-    <t>709-1341-1-ND</t>
-  </si>
-  <si>
-    <t>CAP CER 0.022UF 50V X7R 0805</t>
-  </si>
-  <si>
-    <t>X2Y Series Datasheet</t>
-  </si>
-  <si>
-    <t>Ceramic 1uF Cap</t>
-  </si>
-  <si>
-    <t>TDK Corporation</t>
-  </si>
-  <si>
-    <t>C2012X7R1H105K125AE</t>
-  </si>
-  <si>
-    <t>445-8890-1-ND</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 50V X7R 0805</t>
-  </si>
-  <si>
-    <t>Soft Termination Datasheet</t>
-  </si>
-  <si>
-    <t>Soft Termination Spec</t>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Ceramic 2 nF Cap</t>
+  </si>
+  <si>
+    <t>Ceramic 0.1uF Cap</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0805C104K3RACTU</t>
+  </si>
+  <si>
+    <t>399-1168-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 25V X7R 0805</t>
+  </si>
+  <si>
+    <t>C0805C202J3GACTU</t>
+  </si>
+  <si>
+    <t>399-9186-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 2000PF 25V C0G/NP0 0805</t>
+  </si>
+  <si>
+    <t>C0G Dielectric 10-250V</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -243,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B097BF0F-8E66-4B45-A292-B7ED4A5324CC}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,247 +574,283 @@
     <col min="1" max="1" width="22.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="2" customWidth="1"/>
-    <col min="4" max="6" width="22.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="23.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="22.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2">
+        <f>SUM(D4:D20)</f>
+        <v>1.9200000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B4" s="3">
         <v>0.1</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <f>(B4*C4)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
       <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" ref="D5:D9" si="0">(B5*C5)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="C6" s="6">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="B9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="Link" xr:uid="{80DBAD58-51F2-47F4-8E90-BA3D9A3C747B}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{CAE758C6-0393-46B0-9FAB-453C21762DA6}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{34CCC9E7-0DA1-49A1-B706-69870C650502}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{747E6189-579D-489A-AA48-041F83758657}"/>
-    <hyperlink ref="H4" r:id="rId5" xr:uid="{65F00B7B-66D2-4281-9659-385AA46ECFE7}"/>
-    <hyperlink ref="I4" r:id="rId6" display="RMCF Series, Packaging Spec" xr:uid="{93B45437-BE8C-4FA0-90C6-E818BB7141CB}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{AC699323-30B6-441C-9324-25F881B7ABCC}"/>
-    <hyperlink ref="I5" r:id="rId8" display="RMCF Series, Packaging Spec" xr:uid="{7F65EBAB-61AF-4589-A1CB-D538092BA30D}"/>
-    <hyperlink ref="J5" r:id="rId9" xr:uid="{1C75C55A-B852-4291-B6D7-9037B0466635}"/>
-    <hyperlink ref="H5" r:id="rId10" xr:uid="{DA2334BA-4C4D-494B-8CEB-BDD8360C2A7E}"/>
-    <hyperlink ref="H6" r:id="rId11" xr:uid="{E29978C5-44F3-4F96-8CDF-34370FD0D528}"/>
-    <hyperlink ref="I6" r:id="rId12" xr:uid="{6975CB59-F6D5-47D7-9B2B-F1859252D01E}"/>
-    <hyperlink ref="H7" r:id="rId13" xr:uid="{51FD74B9-7D50-4F35-A110-D09792590472}"/>
-    <hyperlink ref="I7" r:id="rId14" xr:uid="{A87F9D38-C4D0-42C4-A5FD-BA2D180AB2C2}"/>
-    <hyperlink ref="J7" r:id="rId15" xr:uid="{D261F6DB-0557-4D08-B72D-81F4D11F8D23}"/>
+    <hyperlink ref="I4" r:id="rId1" display="Link" xr:uid="{80DBAD58-51F2-47F4-8E90-BA3D9A3C747B}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{CAE758C6-0393-46B0-9FAB-453C21762DA6}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{34CCC9E7-0DA1-49A1-B706-69870C650502}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{747E6189-579D-489A-AA48-041F83758657}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{65F00B7B-66D2-4281-9659-385AA46ECFE7}"/>
+    <hyperlink ref="J6" r:id="rId6" display="RMCF Series, Packaging Spec" xr:uid="{93B45437-BE8C-4FA0-90C6-E818BB7141CB}"/>
+    <hyperlink ref="K6" r:id="rId7" xr:uid="{AC699323-30B6-441C-9324-25F881B7ABCC}"/>
+    <hyperlink ref="J7" r:id="rId8" display="RMCF Series, Packaging Spec" xr:uid="{7F65EBAB-61AF-4589-A1CB-D538092BA30D}"/>
+    <hyperlink ref="K7" r:id="rId9" xr:uid="{1C75C55A-B852-4291-B6D7-9037B0466635}"/>
+    <hyperlink ref="I7" r:id="rId10" xr:uid="{DA2334BA-4C4D-494B-8CEB-BDD8360C2A7E}"/>
+    <hyperlink ref="I8" r:id="rId11" xr:uid="{E29978C5-44F3-4F96-8CDF-34370FD0D528}"/>
+    <hyperlink ref="J8" r:id="rId12" display="X2Y Series Datasheet" xr:uid="{6975CB59-F6D5-47D7-9B2B-F1859252D01E}"/>
+    <hyperlink ref="I9" r:id="rId13" xr:uid="{51FD74B9-7D50-4F35-A110-D09792590472}"/>
+    <hyperlink ref="J9" r:id="rId14" display="Soft Termination Datasheet" xr:uid="{A87F9D38-C4D0-42C4-A5FD-BA2D180AB2C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
+++ b/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Packaging Specs</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity </t>
-  </si>
-  <si>
     <t>100K Resistor</t>
   </si>
   <si>
@@ -155,7 +152,28 @@
     <t>C0G Dielectric 10-250V</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Min Quantity (No Backups)</t>
+  </si>
+  <si>
+    <t>N-Channel Mosfet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infineon Technologies </t>
+  </si>
+  <si>
+    <t>IRF7458TRPBF</t>
+  </si>
+  <si>
+    <t>IRF7458PBFCT-ND</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 30V 14A 8-SOIC</t>
+  </si>
+  <si>
+    <t>IRF7458PbF</t>
+  </si>
+  <si>
+    <t>X7R Dielectric, 6.3-250 VDC</t>
   </si>
 </sst>
 </file>
@@ -219,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -227,12 +245,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -247,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B097BF0F-8E66-4B45-A292-B7ED4A5324CC}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,17 +609,17 @@
     <col min="7" max="7" width="23.77734375" style="2" customWidth="1"/>
     <col min="8" max="8" width="40.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(D4:D20)</f>
-        <v>1.9200000000000004</v>
+        <v>16.84</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -600,11 +630,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -672,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D9" si="0">(B5*C5)</f>
+        <f t="shared" ref="D5:D10" si="0">(B5*C5)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -732,29 +762,29 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3">
         <v>0.1</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -768,70 +798,103 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3">
         <v>0.52</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3">
         <v>0.1</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" t="s">
         <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="B10" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -848,9 +911,11 @@
     <hyperlink ref="I8" r:id="rId11" xr:uid="{E29978C5-44F3-4F96-8CDF-34370FD0D528}"/>
     <hyperlink ref="J8" r:id="rId12" display="X2Y Series Datasheet" xr:uid="{6975CB59-F6D5-47D7-9B2B-F1859252D01E}"/>
     <hyperlink ref="I9" r:id="rId13" xr:uid="{51FD74B9-7D50-4F35-A110-D09792590472}"/>
-    <hyperlink ref="J9" r:id="rId14" display="Soft Termination Datasheet" xr:uid="{A87F9D38-C4D0-42C4-A5FD-BA2D180AB2C2}"/>
+    <hyperlink ref="I10" r:id="rId14" xr:uid="{F763EB3C-385C-4BD2-8180-AA365F1A1523}"/>
+    <hyperlink ref="J10" r:id="rId15" display="http://www.infineon.com/dgdl/irf7458pbf.pdf?fileId=5546d462533600a4015355fecb231bfe" xr:uid="{1E53B5FD-77F4-45FD-9FDF-BEE894CA5AA2}"/>
+    <hyperlink ref="J9" r:id="rId16" display="https://search.kemet.com/component-edge/download/datasheet/C0805C104K3RACTU.pdf" xr:uid="{B70F4811-E6D5-48E8-8F0B-CA4BC5243BEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
+++ b/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\R@M\qubo\qubo_electronics.git\Project QUBO\eagleDesigns\powerBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\qubo_electronics.git\trunk\Project QUBO\eagleDesigns\powerBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{BF4E62C7-C0AA-4CFF-9747-C7C4A8734295}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" xr2:uid="{BF4E62C7-C0AA-4CFF-9747-C7C4A8734295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -35,145 +35,94 @@
     <t>Digi-Key Part Number</t>
   </si>
   <si>
-    <t>541-931KCCT-ND</t>
-  </si>
-  <si>
     <t>Price/Unit</t>
   </si>
   <si>
-    <t>RES SMD 931K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
     <t>Manufacturer Part No</t>
   </si>
   <si>
-    <t>CRCW0805931KFKEA</t>
-  </si>
-  <si>
     <t>Vishay Dale</t>
   </si>
   <si>
-    <t>931K Resistor</t>
-  </si>
-  <si>
     <t>Digi-Key Page</t>
   </si>
   <si>
-    <t>Shopping</t>
-  </si>
-  <si>
-    <t>e3 Series Datasheet</t>
-  </si>
-  <si>
-    <t>523K Resistor</t>
-  </si>
-  <si>
-    <t>CRCW0805523KFKEA</t>
-  </si>
-  <si>
-    <t>541-523KCCT-ND</t>
-  </si>
-  <si>
-    <t>RES SMD 523K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>51K Resistor</t>
-  </si>
-  <si>
-    <t>Stackpole Electronics, Inc</t>
-  </si>
-  <si>
-    <t>RMCF0805JT51K0CT-ND</t>
-  </si>
-  <si>
-    <t>RMCF0805JT51K0</t>
-  </si>
-  <si>
-    <t>RES SMD 51K OHM 5% 1/8W 0805</t>
-  </si>
-  <si>
     <t>Datasheet(s)</t>
   </si>
   <si>
-    <t>RMCF Series Datasheet</t>
-  </si>
-  <si>
-    <t>Packaging Specs</t>
-  </si>
-  <si>
-    <t>100K Resistor</t>
-  </si>
-  <si>
-    <t>RMCF0805JT100KCT-ND</t>
-  </si>
-  <si>
-    <t>RMCF0805JT100K</t>
-  </si>
-  <si>
-    <t>RES SMD 100K OHM 5% 1/8W 0805</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
     <t>Total Cost</t>
   </si>
   <si>
-    <t>Ceramic 2 nF Cap</t>
-  </si>
-  <si>
-    <t>Ceramic 0.1uF Cap</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>C0805C104K3RACTU</t>
-  </si>
-  <si>
-    <t>399-1168-1-ND</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 25V X7R 0805</t>
-  </si>
-  <si>
-    <t>C0805C202J3GACTU</t>
-  </si>
-  <si>
-    <t>399-9186-1-ND</t>
-  </si>
-  <si>
-    <t>CAP CER 2000PF 25V C0G/NP0 0805</t>
-  </si>
-  <si>
-    <t>C0G Dielectric 10-250V</t>
-  </si>
-  <si>
     <t>Min Quantity (No Backups)</t>
   </si>
   <si>
-    <t>N-Channel Mosfet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infineon Technologies </t>
-  </si>
-  <si>
-    <t>IRF7458TRPBF</t>
-  </si>
-  <si>
-    <t>IRF7458PBFCT-ND</t>
-  </si>
-  <si>
-    <t>MOSFET N-CH 30V 14A 8-SOIC</t>
-  </si>
-  <si>
-    <t>IRF7458PbF</t>
-  </si>
-  <si>
-    <t>X7R Dielectric, 6.3-250 VDC</t>
+    <t>RNCF0603BKE172KCT-ND</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>RNCF0603BKE172K</t>
+  </si>
+  <si>
+    <t>172K 1/10W Resistor 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RNCF0603BKE172K/RNCF0603BKE172KCT-ND/2027139</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/Catalog/SEI-RNCF.pdf</t>
+  </si>
+  <si>
+    <t>10K 1/10W Resistor 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/susumu/RR1220P-103-D/RR12P10.0KDCT-ND/432854</t>
+  </si>
+  <si>
+    <t>http://www.susumu.co.jp/common/pdf/n_catalog_partition05_en.pdf</t>
+  </si>
+  <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>RR12P10.0KDCT-ND</t>
+  </si>
+  <si>
+    <t>RR1220P-103-D</t>
+  </si>
+  <si>
+    <t>10mOhm 1W Resstor 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/vishay-dale/WSLP0805R0100FEA18/541-2530-1-ND/5357854</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/30122/wslp.pdf</t>
+  </si>
+  <si>
+    <t>541-2530-1-ND</t>
+  </si>
+  <si>
+    <t>WSLP0805R0100FEA18</t>
+  </si>
+  <si>
+    <t>.15uF 50V Ceramic Cap</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>CL21F154ZBCNNNC</t>
+  </si>
+  <si>
+    <t>1276-2708-1-ND</t>
   </si>
 </sst>
 </file>
@@ -183,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +177,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -254,12 +209,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -272,12 +236,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -596,51 +565,51 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="22.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="22.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(D4:D20)</f>
-        <v>16.84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -649,273 +618,170 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <f>(6*0.41)</f>
+        <v>2.46</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <f>(B4*C4)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" ref="D5:D10" si="0">(B5*C5)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
+      <c r="G5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="3">
-        <v>0.1</v>
+        <v>1.08</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
+        <f>6*1.08</f>
+        <v>6.48</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="3">
         <v>0.1</v>
       </c>
-      <c r="C7" s="2">
-        <v>4</v>
+      <c r="C7" s="6">
+        <v>6</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+        <f>6*0.1</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>1.04</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="H9"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="C10" s="6">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>48</v>
-      </c>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="Link" xr:uid="{80DBAD58-51F2-47F4-8E90-BA3D9A3C747B}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{CAE758C6-0393-46B0-9FAB-453C21762DA6}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{34CCC9E7-0DA1-49A1-B706-69870C650502}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{747E6189-579D-489A-AA48-041F83758657}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{65F00B7B-66D2-4281-9659-385AA46ECFE7}"/>
-    <hyperlink ref="J6" r:id="rId6" display="RMCF Series, Packaging Spec" xr:uid="{93B45437-BE8C-4FA0-90C6-E818BB7141CB}"/>
-    <hyperlink ref="K6" r:id="rId7" xr:uid="{AC699323-30B6-441C-9324-25F881B7ABCC}"/>
-    <hyperlink ref="J7" r:id="rId8" display="RMCF Series, Packaging Spec" xr:uid="{7F65EBAB-61AF-4589-A1CB-D538092BA30D}"/>
-    <hyperlink ref="K7" r:id="rId9" xr:uid="{1C75C55A-B852-4291-B6D7-9037B0466635}"/>
-    <hyperlink ref="I7" r:id="rId10" xr:uid="{DA2334BA-4C4D-494B-8CEB-BDD8360C2A7E}"/>
-    <hyperlink ref="I8" r:id="rId11" xr:uid="{E29978C5-44F3-4F96-8CDF-34370FD0D528}"/>
-    <hyperlink ref="J8" r:id="rId12" display="X2Y Series Datasheet" xr:uid="{6975CB59-F6D5-47D7-9B2B-F1859252D01E}"/>
-    <hyperlink ref="I9" r:id="rId13" xr:uid="{51FD74B9-7D50-4F35-A110-D09792590472}"/>
-    <hyperlink ref="I10" r:id="rId14" xr:uid="{F763EB3C-385C-4BD2-8180-AA365F1A1523}"/>
-    <hyperlink ref="J10" r:id="rId15" display="http://www.infineon.com/dgdl/irf7458pbf.pdf?fileId=5546d462533600a4015355fecb231bfe" xr:uid="{1E53B5FD-77F4-45FD-9FDF-BEE894CA5AA2}"/>
-    <hyperlink ref="J9" r:id="rId16" display="https://search.kemet.com/component-edge/download/datasheet/C0805C104K3RACTU.pdf" xr:uid="{B70F4811-E6D5-48E8-8F0B-CA4BC5243BEE}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{BDAB6CFD-A26F-4AB1-ACB4-4E2A6770E2BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
+++ b/Project QUBO/eagleDesigns/powerBoard/Powerboard Component List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Digi-Key Part Number</t>
   </si>
   <si>
@@ -44,15 +41,9 @@
     <t>Manufacturer Part No</t>
   </si>
   <si>
-    <t>Vishay Dale</t>
-  </si>
-  <si>
     <t>Digi-Key Page</t>
   </si>
   <si>
-    <t>Datasheet(s)</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -77,42 +68,6 @@
     <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RNCF0603BKE172K/RNCF0603BKE172KCT-ND/2027139</t>
   </si>
   <si>
-    <t>https://www.seielect.com/Catalog/SEI-RNCF.pdf</t>
-  </si>
-  <si>
-    <t>10K 1/10W Resistor 0805</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/susumu/RR1220P-103-D/RR12P10.0KDCT-ND/432854</t>
-  </si>
-  <si>
-    <t>http://www.susumu.co.jp/common/pdf/n_catalog_partition05_en.pdf</t>
-  </si>
-  <si>
-    <t>Susumu</t>
-  </si>
-  <si>
-    <t>RR12P10.0KDCT-ND</t>
-  </si>
-  <si>
-    <t>RR1220P-103-D</t>
-  </si>
-  <si>
-    <t>10mOhm 1W Resstor 0805</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/vishay-dale/WSLP0805R0100FEA18/541-2530-1-ND/5357854</t>
-  </si>
-  <si>
-    <t>http://www.vishay.com/docs/30122/wslp.pdf</t>
-  </si>
-  <si>
-    <t>541-2530-1-ND</t>
-  </si>
-  <si>
-    <t>WSLP0805R0100FEA18</t>
-  </si>
-  <si>
     <t>.15uF 50V Ceramic Cap</t>
   </si>
   <si>
@@ -123,6 +78,87 @@
   </si>
   <si>
     <t>1276-2708-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERA-6AEB913V/P91KDACT-ND/1465994</t>
+  </si>
+  <si>
+    <t>P91KDACT-ND</t>
+  </si>
+  <si>
+    <t>ERA-6AEB913V</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>91k 1/8 W Resistor 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RNCS0805BKE10R0/RNCS0805BKE10R0CT-ND/1800161</t>
+  </si>
+  <si>
+    <t>10 Ohm 1/10W Resistor 0805</t>
+  </si>
+  <si>
+    <t>RNCS0805BKE10R0</t>
+  </si>
+  <si>
+    <t>RNCS0805BKE10R0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/infineon-technologies/IRF7458TRPBF/IRF7458PBFCT-ND/827911</t>
+  </si>
+  <si>
+    <t>IRF7458PBFCT-ND</t>
+  </si>
+  <si>
+    <t>IRF7458TRPBF</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 30V 14A 8-SOIC</t>
+  </si>
+  <si>
+    <t>Infineon Technologies</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=1276-2708-1-ND</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>490-12389-1-ND</t>
+  </si>
+  <si>
+    <t>GRT21BR61E226ME13L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRT21BR61E226ME13L/490-12389-1-ND/5417090</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRT21BR61E226ME13-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/tdk-corporation/C2012X5R1E685K125AC/445-5982-1-ND/2444023</t>
+  </si>
+  <si>
+    <t>445-5982-1-ND</t>
+  </si>
+  <si>
+    <t>C2012X5R1E685K125AC</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>6.8uF 25V Ceramic Cap 0805</t>
+  </si>
+  <si>
+    <t>22uF 25V Ceramic Cap 0805</t>
+  </si>
+  <si>
+    <t>&lt;- 3 boards worth + spares (2 BATS &amp; SHORE Power)</t>
   </si>
 </sst>
 </file>
@@ -132,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,24 +200,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,15 +240,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -229,24 +251,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -562,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B097BF0F-8E66-4B45-A292-B7ED4A5324CC}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,12 +603,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2">
-        <f>SUM(D4:D20)</f>
-        <v>10.64</v>
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3">
+        <f>D11</f>
+        <v>27.779999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -597,39 +617,30 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
+      <c r="A4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>0.41</v>
@@ -637,151 +648,209 @@
       <c r="C4" s="2">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
-        <f>(6*0.41)</f>
+      <c r="D4" s="9">
+        <f>PRODUCT(B4*C4)</f>
         <v>2.46</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <f>PRODUCT(B5*C5)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <f>PRODUCT(B6*C6)</f>
+        <v>2.16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
+        <f>PRODUCT(B7*C7)</f>
+        <v>3.42</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="F7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="I7" s="1"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="D6" s="6">
-        <f>6*1.08</f>
-        <v>6.48</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D8" s="9">
+        <f>PRODUCT(B8*C8)</f>
+        <v>11.16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
-        <f>6*0.1</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="H9"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="1"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <f>PRODUCT(B9*C9)</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9">
+        <f>PRODUCT(B10*C10)</f>
+        <v>4.38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <f>SUM(D4:D10)</f>
+        <v>27.779999999999998</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" xr:uid="{BDAB6CFD-A26F-4AB1-ACB4-4E2A6770E2BE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>